--- a/Hartware_2.0.0/FABRICACION/Lista de compra.xlsx
+++ b/Hartware_2.0.0/FABRICACION/Lista de compra.xlsx
@@ -282,6 +282,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -393,18 +394,18 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6632653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.37755102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.48469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.98469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.9183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
